--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1198,40 +1198,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1250,22 +1220,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1287,6 +1249,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1303,8 +1310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,14 +1321,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,13 +1352,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,25 +1406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,43 +1490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,73 +1526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,6 +1555,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1566,15 +1575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,15 +1594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1614,17 +1605,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,6 +1623,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1651,10 +1651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1663,134 +1663,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -2128,13 +2128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1138"/>
+  <dimension ref="A1:B1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1107" workbookViewId="0">
-      <selection activeCell="A1137" sqref="A1137"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="26.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="25.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.375" style="2" customWidth="1"/>
   </cols>
@@ -3755,4683 +3755,4635 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:2">
       <c r="A203" s="2">
         <v>13909862200</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>13778185960</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>13701948610</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>13701948610</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>13019110003</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>13019110003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>13621264378</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>13621264378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>13764067561</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>13764067561</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>13766616679</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>2127887573</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>13955157897</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>13098818533</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>13890286299</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>13766616679</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>13503882837</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>13762411588</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>13301505218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>13955390939</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>13920329355</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>13049866328</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>13974609566</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>13910613306</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>13901898281</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>13077772909</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>13903779597</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>13955157897</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>13775282773</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>13890286299</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>13906396296</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>13687386485</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>13803955187</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>13851283225</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>13955406049</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>13503882837</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>13762596542</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>13857063586</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>13151517890</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>13301505218</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>13817636113</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>13920329355</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>13886473891</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>13974609566</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>13352071536</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>13907811995</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>13818770350</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>13341669169</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>13032488033</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>13180721931</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>13019401451</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>1331186502</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>13791019425</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>13805279827</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>13552309162</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>13931473487</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>13719476077</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>13901898281</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>13621006271</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>13768320980</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>13987700800</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>13903779597</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>13087724218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>13775282773</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>13520877613</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>13906396296</v>
+        <v>13942225959</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="2">
-        <v>13803955187</v>
+        <v>13072753935</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="2">
-        <v>13171655681</v>
+        <v>13977181881</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="2">
-        <v>13706111282</v>
+        <v>13014940387</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="2">
-        <v>13955406049</v>
+        <v>13476595177</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="2">
-        <v>13853202890</v>
+        <v>13869406699</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="2">
-        <v>13613824119</v>
+        <v>13807745884</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="2">
-        <v>13817549953</v>
+        <v>13213241571</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="2">
-        <v>13501221593</v>
+        <v>13584312505</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="2">
-        <v>6622966155</v>
+        <v>13582772373</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="2">
-        <v>13762596542</v>
+        <v>13975698066</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="2">
-        <v>13503775964</v>
+        <v>13940288417</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="2">
-        <v>13151517890</v>
+        <v>13906111598</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="2">
-        <v>13311021200</v>
+        <v>13898112643</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="2">
-        <v>13817636113</v>
+        <v>13507174066</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="2">
-        <v>13314312131</v>
+        <v>13636624776</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="2">
-        <v>13886473891</v>
+        <v>13951898209</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="2">
-        <v>13352071536</v>
+        <v>13693331306</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="2">
-        <v>13818770350</v>
+        <v>13601589710</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="2">
-        <v>13032488033</v>
+        <v>13601388103</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="2">
-        <v>13019401451</v>
+        <v>13097753969</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="2">
-        <v>2156664065</v>
+        <v>13539968306</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="2">
-        <v>13791019425</v>
+        <v>13956084558</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="2">
-        <v>13861011970</v>
+        <v>1372782630</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="2">
-        <v>13552309162</v>
+        <v>13802787947</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="2">
-        <v>13719476077</v>
+        <v>13991125995</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="2">
-        <v>13621006271</v>
+        <v>13203820170</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="2">
-        <v>13987700800</v>
+        <v>13904230611</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="2">
-        <v>13087724218</v>
+        <v>13239969279</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="2">
-        <v>13520877613</v>
+        <v>13874607577</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="2">
-        <v>13942225959</v>
+        <v>13693605856</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="2">
-        <v>13072753935</v>
+        <v>2888077731</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="2">
-        <v>13977181881</v>
+        <v>13941131208</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="2">
-        <v>13014940387</v>
+        <v>13085451211</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="2">
-        <v>13476595177</v>
+        <v>13304806225</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="2">
-        <v>13869406699</v>
+        <v>13339299977</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="2">
-        <v>13807745884</v>
+        <v>13978668898</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="2">
-        <v>13213241571</v>
+        <v>13321408825</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="2">
-        <v>13584312505</v>
+        <v>4278586491</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="2">
-        <v>13582772373</v>
+        <v>13990218833</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="2">
-        <v>13975698066</v>
+        <v>13646811323</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="2">
-        <v>13940288417</v>
+        <v>13207736858</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="2">
-        <v>13906111598</v>
+        <v>13211377073</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="2">
-        <v>13898112643</v>
+        <v>13903956516</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="2">
-        <v>13507174066</v>
+        <v>13816076638</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="2">
-        <v>13636624776</v>
+        <v>13338638606</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="2">
-        <v>13951898209</v>
+        <v>13020236993</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="2">
-        <v>13693331306</v>
+        <v>13003187387</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="2">
-        <v>13601589710</v>
+        <v>13361943190</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="2">
-        <v>13601388103</v>
+        <v>13932379641</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="2">
-        <v>13097753969</v>
+        <v>13601895746</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="2">
-        <v>13539968306</v>
+        <v>13844602468</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="2">
-        <v>13956084558</v>
+        <v>13709464722</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="2">
-        <v>1372782630</v>
+        <v>13682268306</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="2">
-        <v>13802787947</v>
+        <v>13693183048</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="2">
-        <v>13991125995</v>
+        <v>13627639725</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="2">
-        <v>13203820170</v>
+        <v>13709648083</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="2">
-        <v>13904230611</v>
+        <v>13905734837</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="2">
-        <v>13239969279</v>
+        <v>13971419877</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="2">
-        <v>13874607577</v>
+        <v>13137903095</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="2">
-        <v>13693605856</v>
+        <v>13816857858</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="2">
-        <v>2888077731</v>
+        <v>13636584608</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="2">
-        <v>13941131208</v>
+        <v>1086581474</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="2">
-        <v>13085451211</v>
+        <v>13364616960</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="2">
-        <v>13304806225</v>
+        <v>13517882191</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="2">
-        <v>13339299977</v>
+        <v>13505706120</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="2">
-        <v>13978668898</v>
+        <v>13728931232</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="2">
-        <v>13321408825</v>
+        <v>13843704088</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="2">
-        <v>4278586491</v>
+        <v>13621277169</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="2">
-        <v>13990218833</v>
+        <v>13186088276</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="2">
-        <v>13646811323</v>
+        <v>4122104416</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="2">
-        <v>13207736858</v>
+        <v>13879162211</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="2">
-        <v>13211377073</v>
+        <v>13707837110</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="2">
-        <v>13903956516</v>
+        <v>13361102135</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="2">
-        <v>13816076638</v>
+        <v>13916181221</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="2">
-        <v>13338638606</v>
+        <v>13766873049</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="2">
-        <v>13020236993</v>
+        <v>7466280098</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="2">
-        <v>13003187387</v>
+        <v>13393718069</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="2">
-        <v>13361943190</v>
+        <v>13314259995</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="2">
-        <v>13932379641</v>
+        <v>13795222986</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="2">
-        <v>13601895746</v>
+        <v>13911605915</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="2">
-        <v>13844602468</v>
+        <v>13807870330</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="2">
-        <v>13709464722</v>
+        <v>13020178271</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="2">
-        <v>13682268306</v>
+        <v>13965129835</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="2">
-        <v>13693183048</v>
+        <v>13074150970</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="2">
-        <v>13627639725</v>
+        <v>13666757977</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="2">
-        <v>13709648083</v>
+        <v>13901043603</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="2">
-        <v>13905734837</v>
+        <v>13866312370</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="2">
-        <v>13971419877</v>
+        <v>13075518180</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="2">
-        <v>13137903095</v>
+        <v>13600853885</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="2">
-        <v>13816857858</v>
+        <v>13024141591</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="2">
-        <v>13636584608</v>
+        <v>13683516801</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="2">
-        <v>1086581474</v>
+        <v>13598117977</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="2">
-        <v>13364616960</v>
+        <v>13623889452</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="2">
-        <v>13517882191</v>
+        <v>13981316081</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="2">
-        <v>13505706120</v>
+        <v>13321960992</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="2">
-        <v>13728931232</v>
+        <v>13065456203</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="2">
-        <v>13843704088</v>
+        <v>13764374999</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="2">
-        <v>13621277169</v>
+        <v>13966185147</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="2">
-        <v>13186088276</v>
+        <v>13910879017</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="2">
-        <v>4122104416</v>
+        <v>13972021859</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="2">
-        <v>13879162211</v>
+        <v>13020111351</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="2">
-        <v>13707837110</v>
+        <v>13089482948</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="2">
-        <v>13361102135</v>
+        <v>13520887047</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="2">
-        <v>13916181221</v>
+        <v>13591666114</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="2">
-        <v>13766873049</v>
+        <v>13813598141</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="2">
-        <v>7466280098</v>
+        <v>13786518752</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="2">
-        <v>13393718069</v>
+        <v>13510084949</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="2">
-        <v>13314259995</v>
+        <v>13909077259</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="2">
-        <v>13795222986</v>
+        <v>13607716259</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="2">
-        <v>13911605915</v>
+        <v>13065351234</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="2">
-        <v>13807870330</v>
+        <v>13458446319</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="2">
-        <v>13020178271</v>
+        <v>13907729073</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="2">
-        <v>13965129835</v>
+        <v>13949009658</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="2">
-        <v>13074150970</v>
+        <v>13975543069</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="2">
-        <v>13666757977</v>
+        <v>13791380610</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="2">
-        <v>13901043603</v>
+        <v>13898395204</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="2">
-        <v>13866312370</v>
+        <v>13611255615</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="2">
-        <v>13075518180</v>
+        <v>3725282815</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="2">
-        <v>13600853885</v>
+        <v>13807098209</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="2">
-        <v>13024141591</v>
+        <v>13138121578</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="2">
-        <v>13683516801</v>
+        <v>13971280038</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="2">
-        <v>13598117977</v>
+        <v>13123191397</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="2">
-        <v>13623889452</v>
+        <v>13301396089</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="2">
-        <v>13981316081</v>
+        <v>13874603143</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="2">
-        <v>13321960992</v>
+        <v>13853101233</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="2">
-        <v>13065456203</v>
+        <v>13522792149</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="2">
-        <v>13764374999</v>
+        <v>13951366333</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="2">
-        <v>13966185147</v>
+        <v>13932532563</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="2">
-        <v>13910879017</v>
+        <v>13819163692</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="2">
-        <v>13972021859</v>
+        <v>13478332026</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="2">
-        <v>13020111351</v>
+        <v>13981711511</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="2">
-        <v>13089482948</v>
+        <v>13624054489</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="2">
-        <v>13520887047</v>
+        <v>13607888909</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="2">
-        <v>13591666114</v>
+        <v>13597330108</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="2">
-        <v>13813598141</v>
+        <v>13018342680</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="2">
-        <v>13786518752</v>
+        <v>13843786352</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="2">
-        <v>13510084949</v>
+        <v>13371984887</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="2">
-        <v>13909077259</v>
+        <v>13705523236</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="2">
-        <v>13607716259</v>
+        <v>13638981419</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="2">
-        <v>13065351234</v>
+        <v>13587058511</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="2">
-        <v>13458446319</v>
+        <v>13548796718</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="2">
-        <v>13907729073</v>
+        <v>13120115694</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="2">
-        <v>13949009658</v>
+        <v>13854643061</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="2">
-        <v>13975543069</v>
+        <v>13904339030</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="2">
-        <v>13791380610</v>
+        <v>13228041904</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="2">
-        <v>13898395204</v>
+        <v>13313237668</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="2">
-        <v>13611255615</v>
+        <v>13643848656</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="2">
-        <v>3725282815</v>
+        <v>13991029885</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="2">
-        <v>13807098209</v>
+        <v>13018710283</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="2">
-        <v>13138121578</v>
+        <v>13761291178</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="2">
-        <v>13971280038</v>
+        <v>13611347846</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="2">
-        <v>13123191397</v>
+        <v>13607448255</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="2">
-        <v>13301396089</v>
+        <v>13998077311</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="2">
-        <v>13874603143</v>
+        <v>13783000683</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="2">
-        <v>13853101233</v>
+        <v>13985426118</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="2">
-        <v>13522792149</v>
+        <v>13804054290</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="2">
-        <v>13951366333</v>
+        <v>13501055106</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="2">
-        <v>13932532563</v>
+        <v>13942625050</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="2">
-        <v>13819163692</v>
+        <v>13864231205</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="2">
-        <v>13478332026</v>
+        <v>13714645349</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="2">
-        <v>13981711511</v>
+        <v>13700064818</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="2">
-        <v>13624054489</v>
+        <v>13851822909</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="2">
-        <v>13607888909</v>
+        <v>13996320989</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="2">
-        <v>13597330108</v>
+        <v>13357011357</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="2">
-        <v>13018342680</v>
+        <v>13974679857</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="2">
-        <v>13843786352</v>
+        <v>13975580668</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="2">
-        <v>13371984887</v>
+        <v>13002575385</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="2">
-        <v>13705523236</v>
+        <v>13555200699</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="2">
-        <v>13638981419</v>
+        <v>13921195319</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="2">
-        <v>13587058511</v>
+        <v>13814079798</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="2">
-        <v>13548796718</v>
+        <v>13066866778</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="2">
-        <v>13120115694</v>
+        <v>13961237256</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="2">
-        <v>13854643061</v>
+        <v>13601163087</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="2">
-        <v>13904339030</v>
+        <v>13805568193</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="2">
-        <v>13228041904</v>
+        <v>13327197595</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="2">
-        <v>13313237668</v>
+        <v>13977623027</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="2">
-        <v>13643848656</v>
+        <v>13091603989</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="2">
-        <v>13991029885</v>
+        <v>13807323276</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="2">
-        <v>13018710283</v>
+        <v>13904092365</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="2">
-        <v>13761291178</v>
+        <v>2762371938</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="2">
-        <v>13611347846</v>
+        <v>13683179018</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="2">
-        <v>13607448255</v>
+        <v>13951636363</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="2">
-        <v>13998077311</v>
+        <v>13978862387</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="2">
-        <v>13783000683</v>
+        <v>13813877908</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="2">
-        <v>13985426118</v>
+        <v>13928098641</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="2">
-        <v>13804054290</v>
+        <v>13708605371</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="2">
-        <v>13501055106</v>
+        <v>13020203196</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="2">
-        <v>13942625050</v>
+        <v>13004439381</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="2">
-        <v>13864231205</v>
+        <v>13941279619</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="2">
-        <v>13714645349</v>
+        <v>13878806422</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="2">
-        <v>13700064818</v>
+        <v>13636449590</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="2">
-        <v>13851822909</v>
+        <v>13057594774</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="2">
-        <v>13996320989</v>
+        <v>13186771907</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="2">
-        <v>13357011357</v>
+        <v>13520326004</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="2">
-        <v>13974679857</v>
+        <v>13658120424</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="2">
-        <v>13975580668</v>
+        <v>13975943148</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="2">
-        <v>13002575385</v>
+        <v>13123576534</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="2">
-        <v>13555200699</v>
+        <v>13543867248</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="2">
-        <v>13921195319</v>
+        <v>13942087583</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="2">
-        <v>13814079798</v>
+        <v>13817546920</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="2">
-        <v>13066866778</v>
+        <v>13603548839</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="2">
-        <v>13961237256</v>
+        <v>13564188107</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="2">
-        <v>13601163087</v>
+        <v>13526808231</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="2">
-        <v>13805568193</v>
+        <v>13934706068</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="2">
-        <v>13327197595</v>
+        <v>13787493749</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="2">
-        <v>13977623027</v>
+        <v>13131435288</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="2">
-        <v>13091603989</v>
+        <v>13611754126</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="2">
-        <v>13807323276</v>
+        <v>13907828639</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="2">
-        <v>13904092365</v>
+        <v>13037819398</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="2">
-        <v>2762371938</v>
+        <v>13031007801</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="2">
-        <v>13683179018</v>
+        <v>13202511323</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="2">
-        <v>13951636363</v>
+        <v>13501308687</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="2">
-        <v>13978862387</v>
+        <v>13501269707</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="2">
-        <v>13813877908</v>
+        <v>13382011888</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="2">
-        <v>13928098641</v>
+        <v>13051091670</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="2">
-        <v>13708605371</v>
+        <v>13571466238</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="2">
-        <v>13020203196</v>
+        <v>13514404052</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="2">
-        <v>13004439381</v>
+        <v>13987661501</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="2">
-        <v>13941279619</v>
+        <v>13162488838</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="2">
-        <v>13878806422</v>
+        <v>13076755075</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="2">
-        <v>13636449590</v>
+        <v>13701260383</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="2">
-        <v>13057594774</v>
+        <v>13978286180</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="2">
-        <v>13186771907</v>
+        <v>13313439634</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="2">
-        <v>13520326004</v>
+        <v>13509403969</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="2">
-        <v>13658120424</v>
+        <v>13770320570</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="2">
-        <v>13975943148</v>
+        <v>13683322803</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="2">
-        <v>13123576534</v>
+        <v>13801375817</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="2">
-        <v>13543867248</v>
+        <v>4336381987</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="2">
-        <v>13942087583</v>
+        <v>13975147098</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="2">
-        <v>13817546920</v>
+        <v>13941125380</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="2">
-        <v>13603548839</v>
+        <v>13702325667</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="2">
-        <v>13564188107</v>
+        <v>13382180217</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="2">
-        <v>13526808231</v>
+        <v>13078297332</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="2">
-        <v>13934706068</v>
+        <v>13696880348</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="2">
-        <v>13787493749</v>
+        <v>13707601868</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="2">
-        <v>13131435288</v>
+        <v>13065402562</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="2">
-        <v>13611754126</v>
+        <v>13764631156</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="2">
-        <v>13907828639</v>
+        <v>13031109221</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="2">
-        <v>13037819398</v>
+        <v>13035636405</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="2">
-        <v>13031007801</v>
+        <v>13846670719</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="2">
-        <v>13202511323</v>
+        <v>13661903294</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="2">
-        <v>13501308687</v>
+        <v>13517628043</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="2">
-        <v>13501269707</v>
+        <v>13847222239</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="2">
-        <v>13382011888</v>
+        <v>13311767918</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="2">
-        <v>13051091670</v>
+        <v>13951836833</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="2">
-        <v>13571466238</v>
+        <v>13457234570</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="2">
-        <v>13514404052</v>
+        <v>13078080907</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="2">
-        <v>13987661501</v>
+        <v>13697341300</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="2">
-        <v>13162488838</v>
+        <v>13032199356</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="2">
-        <v>13076755075</v>
+        <v>13564476366</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="2">
-        <v>13701260383</v>
+        <v>13814028862</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="2">
-        <v>13978286180</v>
+        <v>13133129153</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="2">
-        <v>13313439634</v>
+        <v>13331920109</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="2">
-        <v>13509403969</v>
+        <v>13901357952</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="2">
-        <v>13770320570</v>
+        <v>13307472959</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="2">
-        <v>13683322803</v>
+        <v>13641957661</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="2">
-        <v>13801375817</v>
+        <v>13752486422</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="2">
-        <v>4336381987</v>
+        <v>13503845595</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2">
-        <v>13975147098</v>
+        <v>13641641727</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2">
-        <v>13941125380</v>
+        <v>13531496638</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2">
-        <v>13702325667</v>
+        <v>13918763903</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2">
-        <v>13382180217</v>
+        <v>13669744149</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2">
-        <v>13078297332</v>
+        <v>13917675785</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2">
-        <v>13696880348</v>
+        <v>13901988678</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2">
-        <v>13707601868</v>
+        <v>13907386553</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2">
-        <v>13065402562</v>
+        <v>13855703667</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2">
-        <v>13764631156</v>
+        <v>13459113717</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2">
-        <v>13031109221</v>
+        <v>13754380108</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2">
-        <v>13035636405</v>
+        <v>13817767675</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2">
-        <v>13846670719</v>
+        <v>13737305036</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2">
-        <v>13661903294</v>
+        <v>13592991713</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2">
-        <v>13517628043</v>
+        <v>13671635951</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2">
-        <v>13847222239</v>
+        <v>13917000616</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="2">
-        <v>13311767918</v>
+        <v>13851698663</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="2">
-        <v>13951836833</v>
+        <v>13333969034</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="2">
-        <v>13457234570</v>
+        <v>13301628595</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="2">
-        <v>13078080907</v>
+        <v>13872765822</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="2">
-        <v>13697341300</v>
+        <v>13395888819</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="2">
-        <v>13032199356</v>
+        <v>13808088657</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="2">
-        <v>13564476366</v>
+        <v>13834502813</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="2">
-        <v>13814028862</v>
+        <v>13629956102</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="2">
-        <v>13133129153</v>
+        <v>13838552887</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="2">
-        <v>13331920109</v>
+        <v>13094137468</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="2">
-        <v>13901357952</v>
+        <v>13505809702</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2">
-        <v>13307472959</v>
+        <v>13355345018</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2">
-        <v>13641957661</v>
+        <v>13167261090</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2">
-        <v>13752486422</v>
+        <v>13941285955</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2">
-        <v>13503845595</v>
+        <v>13638639487</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2">
-        <v>13641641727</v>
+        <v>13089068228</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2">
-        <v>13531496638</v>
+        <v>13313630000</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2">
-        <v>13918763903</v>
+        <v>13662643292</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2">
-        <v>13669744149</v>
+        <v>13826309893</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2">
-        <v>13917675785</v>
+        <v>13507070906</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2">
-        <v>13901988678</v>
+        <v>13700577740</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2">
-        <v>13907386553</v>
+        <v>13873831719</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2">
-        <v>13855703667</v>
+        <v>13850239503</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2">
-        <v>13459113717</v>
+        <v>13035515250</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2">
-        <v>13754380108</v>
+        <v>13913927808</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2">
-        <v>13817767675</v>
+        <v>13500895158</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2">
-        <v>13737305036</v>
+        <v>13605176666</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="2">
-        <v>13592991713</v>
+        <v>13007459476</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="2">
-        <v>13671635951</v>
+        <v>13889310885</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2">
-        <v>13917000616</v>
+        <v>13801951533</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2">
-        <v>13851698663</v>
+        <v>13937977993</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2">
-        <v>13333969034</v>
+        <v>13077719088</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2">
-        <v>13301628595</v>
+        <v>13845768518</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2">
-        <v>13872765822</v>
+        <v>13690407496</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2">
-        <v>13395888819</v>
+        <v>13998667859</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2">
-        <v>13808088657</v>
+        <v>13544058868</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2">
-        <v>13834502813</v>
+        <v>13011844993</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2">
-        <v>13629956102</v>
+        <v>13875508025</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2">
-        <v>13838552887</v>
+        <v>13918456235</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2">
-        <v>13094137468</v>
+        <v>13678447557</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2">
-        <v>13505809702</v>
+        <v>13517417523</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2">
-        <v>13355345018</v>
+        <v>13588591726</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2">
-        <v>13167261090</v>
+        <v>13604936730</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2">
-        <v>13941285955</v>
+        <v>13213577277</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2">
-        <v>13638639487</v>
+        <v>13701507860</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2">
-        <v>13089068228</v>
+        <v>13320168217</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2">
-        <v>13313630000</v>
+        <v>13329851380</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2">
-        <v>13662643292</v>
+        <v>13894889550</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2">
-        <v>13826309893</v>
+        <v>13177006798</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2">
-        <v>13507070906</v>
+        <v>13894682188</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2">
-        <v>13700577740</v>
+        <v>13085591717</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2">
-        <v>13873831719</v>
+        <v>13973932939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2">
-        <v>13850239503</v>
+        <v>13304967428</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2">
-        <v>13035515250</v>
+        <v>13032414239</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2">
-        <v>13913927808</v>
+        <v>13901657448</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2">
-        <v>13500895158</v>
+        <v>13332121125</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2">
-        <v>13605176666</v>
+        <v>13939068194</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2">
-        <v>13007459476</v>
+        <v>13182519197</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2">
-        <v>13889310885</v>
+        <v>13971395255</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2">
-        <v>13801951533</v>
+        <v>13993167005</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2">
-        <v>13937977993</v>
+        <v>13663997906</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2">
-        <v>13077719088</v>
+        <v>13759868195</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2">
-        <v>13845768518</v>
+        <v>13972238381</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="2">
-        <v>13690407496</v>
+        <v>13543359258</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2">
-        <v>13998667859</v>
+        <v>13007215116</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2">
-        <v>13544058868</v>
+        <v>13034870386</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2">
-        <v>13011844993</v>
+        <v>13606065829</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2">
-        <v>13875508025</v>
+        <v>13651748859</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2">
-        <v>13918456235</v>
+        <v>13977436759</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2">
-        <v>13678447557</v>
+        <v>13109632525</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2">
-        <v>13517417523</v>
+        <v>13063994348</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2">
-        <v>13588591726</v>
+        <v>13660972116</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="2">
-        <v>13604936730</v>
+        <v>13980548299</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="2">
-        <v>13213577277</v>
+        <v>13322488846</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2">
-        <v>13701507860</v>
+        <v>13548701161</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2">
-        <v>13320168217</v>
+        <v>13664730186</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2">
-        <v>13329851380</v>
+        <v>13603786627</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2">
-        <v>13894889550</v>
+        <v>13514415089</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2">
-        <v>13177006798</v>
+        <v>13808620150</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2">
-        <v>13894682188</v>
+        <v>13700512550</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2">
-        <v>13085591717</v>
+        <v>13596240680</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2">
-        <v>13973932939</v>
+        <v>13508119056</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2">
-        <v>13304967428</v>
+        <v>13847158894</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2">
-        <v>13032414239</v>
+        <v>13166325316</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2">
-        <v>13901657448</v>
+        <v>13505910648</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2">
-        <v>13332121125</v>
+        <v>13661773080</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2">
-        <v>13939068194</v>
+        <v>13907080313</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2">
-        <v>13182519197</v>
+        <v>13977353708</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2">
-        <v>13971395255</v>
+        <v>13916877930</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2">
-        <v>13993167005</v>
+        <v>13070519523</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2">
-        <v>13663997906</v>
+        <v>13504306330</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2">
-        <v>13759868195</v>
+        <v>13755429917</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2">
-        <v>13972238381</v>
+        <v>13034990727</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2">
-        <v>13543359258</v>
+        <v>13938599334</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2">
-        <v>13007215116</v>
+        <v>13916621307</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2">
-        <v>13034870386</v>
+        <v>13500530959</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2">
-        <v>13606065829</v>
+        <v>13569916900</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2">
-        <v>13651748859</v>
+        <v>13855995117</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2">
-        <v>13977436759</v>
+        <v>13652315928</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2">
-        <v>13109632525</v>
+        <v>13982990468</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2">
-        <v>13063994348</v>
+        <v>13875666673</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2">
-        <v>13660972116</v>
+        <v>13871096169</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2">
-        <v>13980548299</v>
+        <v>13903466658</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2">
-        <v>13322488846</v>
+        <v>13807313228</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2">
-        <v>13548701161</v>
+        <v>13098826714</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2">
-        <v>13664730186</v>
+        <v>13520668978</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2">
-        <v>13603786627</v>
+        <v>13940465858</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2">
-        <v>13514415089</v>
+        <v>13768100534</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2">
-        <v>13808620150</v>
+        <v>13987774899</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2">
-        <v>13700512550</v>
+        <v>13059807988</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="2">
-        <v>13596240680</v>
+        <v>13904617888</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="2">
-        <v>13508119056</v>
+        <v>13917462698</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="2">
-        <v>13847158894</v>
+        <v>13081244126</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="2">
-        <v>13166325316</v>
+        <v>13572236184</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="2">
-        <v>13505910648</v>
+        <v>13855195856</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="2">
-        <v>13661773080</v>
+        <v>13304165556</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="2">
-        <v>13907080313</v>
+        <v>13845757990</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="2">
-        <v>13977353708</v>
+        <v>13381906350</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="2">
-        <v>13916877930</v>
+        <v>13192881916</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="2">
-        <v>13070519523</v>
+        <v>13885699189</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="2">
-        <v>13504306330</v>
+        <v>13850861961</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="2">
-        <v>13755429917</v>
+        <v>13846213124</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="2">
-        <v>13034990727</v>
+        <v>13803320086</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="2">
-        <v>13938599334</v>
+        <v>13066756650</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="2">
-        <v>13916621307</v>
+        <v>13851850572</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="2">
-        <v>13500530959</v>
+        <v>13817661053</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="2">
-        <v>13569916900</v>
+        <v>13907732145</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="2">
-        <v>13855995117</v>
+        <v>13651149863</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="2">
-        <v>13652315928</v>
+        <v>13044174641</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="2">
-        <v>13982990468</v>
+        <v>13600810886</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="2">
-        <v>13875666673</v>
+        <v>13672475683</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="2">
-        <v>13871096169</v>
+        <v>13079200255</v>
       </c>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="2">
-        <v>13903466658</v>
+      <c r="A642" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="2">
-        <v>13807313228</v>
+      <c r="A643" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="2">
-        <v>13098826714</v>
+      <c r="A644" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="2">
-        <v>13520668978</v>
+      <c r="A645" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="2">
-        <v>13940465858</v>
+      <c r="A646" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="2">
-        <v>13768100534</v>
+      <c r="A647" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="2">
-        <v>13987774899</v>
+      <c r="A648" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="2">
-        <v>13059807988</v>
+      <c r="A649" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="2">
-        <v>13904617888</v>
+      <c r="A650" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="2">
-        <v>13917462698</v>
+      <c r="A651" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="2">
-        <v>13081244126</v>
+      <c r="A652" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="2">
-        <v>13572236184</v>
+      <c r="A653" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="2">
-        <v>13855195856</v>
+      <c r="A654" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="2">
-        <v>13304165556</v>
+      <c r="A655" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="2">
-        <v>13845757990</v>
+      <c r="A656" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="2">
-        <v>13381906350</v>
+      <c r="A657" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="2">
-        <v>13192881916</v>
+      <c r="A658" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="2">
-        <v>13885699189</v>
+      <c r="A659" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="2">
-        <v>13850861961</v>
+      <c r="A660" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="2">
-        <v>13846213124</v>
+      <c r="A661" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="2">
-        <v>13803320086</v>
+      <c r="A662" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="2">
-        <v>13066756650</v>
+      <c r="A663" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="2">
-        <v>13851850572</v>
+      <c r="A664" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="2">
-        <v>13817661053</v>
+      <c r="A665" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="2">
-        <v>13907732145</v>
+      <c r="A666" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="2">
-        <v>13651149863</v>
+      <c r="A667" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="2">
-        <v>13044174641</v>
+      <c r="A668" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="2">
-        <v>13600810886</v>
+      <c r="A669" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="2">
-        <v>13672475683</v>
+      <c r="A670" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="2">
-        <v>13079200255</v>
+      <c r="A671" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="2" t="s">
-        <v>73</v>
+      <c r="A681" s="2">
+        <v>13996412056</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="2">
-        <v>13996412056</v>
+      <c r="A711" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="2" t="s">
-        <v>124</v>
+      <c r="A733" s="2">
+        <v>13842395600</v>
       </c>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="2" t="s">
-        <v>125</v>
+      <c r="A734" s="2">
+        <v>13803718060</v>
       </c>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="2" t="s">
-        <v>126</v>
+      <c r="A735" s="2">
+        <v>13905159821</v>
       </c>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="2" t="s">
-        <v>127</v>
+      <c r="A736" s="2">
+        <v>13332095268</v>
       </c>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="2" t="s">
-        <v>128</v>
+      <c r="A737" s="2">
+        <v>13901623273</v>
       </c>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="2" t="s">
-        <v>129</v>
+      <c r="A738" s="2">
+        <v>13631363009</v>
       </c>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="2" t="s">
-        <v>130</v>
+      <c r="A739" s="2">
+        <v>13786301629</v>
       </c>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="2" t="s">
-        <v>131</v>
+      <c r="A740" s="2">
+        <v>13701724816</v>
       </c>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="2" t="s">
-        <v>132</v>
+      <c r="A741" s="2">
+        <v>13761311611</v>
       </c>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="2" t="s">
-        <v>133</v>
+      <c r="A742" s="2">
+        <v>13185104381</v>
       </c>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="2" t="s">
-        <v>134</v>
+      <c r="A743" s="2">
+        <v>13482710913</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="760" spans="1:1">
-      <c r="A760" s="2" t="s">
-        <v>151</v>
+      <c r="A760" s="2">
+        <v>13552682680</v>
       </c>
     </row>
     <row r="761" spans="1:1">
-      <c r="A761" s="2" t="s">
-        <v>152</v>
+      <c r="A761" s="2">
+        <v>13851601620</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="763" spans="1:1">
-      <c r="A763" s="2">
-        <v>13842395600</v>
+      <c r="A763" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="764" spans="1:1">
-      <c r="A764" s="2">
-        <v>13803718060</v>
+      <c r="A764" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" s="2">
-        <v>13905159821</v>
+      <c r="A765" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="766" spans="1:1">
-      <c r="A766" s="2">
-        <v>13332095268</v>
+      <c r="A766" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="767" spans="1:1">
-      <c r="A767" s="2">
-        <v>13901623273</v>
+      <c r="A767" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="768" spans="1:1">
-      <c r="A768" s="2">
-        <v>13631363009</v>
+      <c r="A768" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="769" spans="1:1">
-      <c r="A769" s="2">
-        <v>13786301629</v>
+      <c r="A769" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="2">
-        <v>13701724816</v>
+      <c r="A770" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="771" spans="1:1">
-      <c r="A771" s="2">
-        <v>13761311611</v>
+      <c r="A771" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="772" spans="1:1">
-      <c r="A772" s="2">
-        <v>13185104381</v>
+      <c r="A772" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="773" spans="1:1">
-      <c r="A773" s="2">
-        <v>13482710913</v>
+      <c r="A773" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="2" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="2" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="2" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="790" spans="1:1">
-      <c r="A790" s="2">
-        <v>13552682680</v>
+      <c r="A790" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="791" spans="1:1">
-      <c r="A791" s="2">
-        <v>13851601620</v>
+      <c r="A791" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="2" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="796" spans="1:1">
-      <c r="A796" s="2" t="s">
-        <v>174</v>
+      <c r="A796" s="2">
+        <v>13623867707</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="2" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="2" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="2" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="2" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="2" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="2" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="2" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="805" spans="1:1">
-      <c r="A805" s="2" t="s">
-        <v>183</v>
+      <c r="A805" s="2">
+        <v>13842718165</v>
       </c>
     </row>
     <row r="806" spans="1:1">
-      <c r="A806" s="2" t="s">
-        <v>184</v>
+      <c r="A806" s="2">
+        <v>13888174883</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="2" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="2" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="810" spans="1:1">
-      <c r="A810" s="2" t="s">
-        <v>188</v>
+      <c r="A810" s="2">
+        <v>13912984791</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="2" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="2" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="814" spans="1:1">
-      <c r="A814" s="2" t="s">
-        <v>192</v>
+      <c r="A814" s="2">
+        <v>13017349892</v>
       </c>
     </row>
     <row r="815" spans="1:1">
-      <c r="A815" s="2" t="s">
-        <v>193</v>
+      <c r="A815" s="2">
+        <v>13645170996</v>
       </c>
     </row>
     <row r="816" spans="1:1">
-      <c r="A816" s="2" t="s">
-        <v>194</v>
+      <c r="A816" s="2">
+        <v>13669286913</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="2" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="2" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="826" spans="1:1">
-      <c r="A826" s="2">
-        <v>13623867707</v>
+      <c r="A826" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="827" spans="1:1">
-      <c r="A827" s="2" t="s">
-        <v>204</v>
+      <c r="A827" s="2">
+        <v>13089424822</v>
       </c>
     </row>
     <row r="828" spans="1:1">
-      <c r="A828" s="2" t="s">
-        <v>205</v>
+      <c r="A828" s="2">
+        <v>13578061986</v>
       </c>
     </row>
     <row r="829" spans="1:1">
-      <c r="A829" s="2" t="s">
-        <v>206</v>
+      <c r="A829" s="2">
+        <v>13886366198</v>
       </c>
     </row>
     <row r="830" spans="1:1">
-      <c r="A830" s="2" t="s">
-        <v>207</v>
+      <c r="A830" s="2">
+        <v>13788579808</v>
       </c>
     </row>
     <row r="831" spans="1:1">
-      <c r="A831" s="2" t="s">
-        <v>208</v>
+      <c r="A831" s="2">
+        <v>13873331681</v>
       </c>
     </row>
     <row r="832" spans="1:1">
-      <c r="A832" s="2" t="s">
-        <v>209</v>
+      <c r="A832" s="2">
+        <v>13014394221</v>
       </c>
     </row>
     <row r="833" spans="1:1">
-      <c r="A833" s="2" t="s">
-        <v>210</v>
+      <c r="A833" s="2">
+        <v>13991802235</v>
       </c>
     </row>
     <row r="834" spans="1:1">
-      <c r="A834" s="2" t="s">
-        <v>211</v>
+      <c r="A834" s="2">
+        <v>13681301519</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2">
-        <v>13842718165</v>
+        <v>13778251306</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="2">
-        <v>13888174883</v>
+        <v>13511274800</v>
       </c>
     </row>
     <row r="837" spans="1:1">
-      <c r="A837" s="2" t="s">
-        <v>212</v>
+      <c r="A837" s="2">
+        <v>13308229661</v>
       </c>
     </row>
     <row r="838" spans="1:1">
-      <c r="A838" s="2" t="s">
-        <v>213</v>
+      <c r="A838" s="2">
+        <v>13875567691</v>
       </c>
     </row>
     <row r="839" spans="1:1">
-      <c r="A839" s="2" t="s">
-        <v>214</v>
+      <c r="A839" s="2">
+        <v>13938637483</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="2">
-        <v>13912984791</v>
+        <v>13661130057</v>
       </c>
     </row>
     <row r="841" spans="1:1">
-      <c r="A841" s="2" t="s">
-        <v>215</v>
+      <c r="A841" s="2">
+        <v>13969155228</v>
       </c>
     </row>
     <row r="842" spans="1:1">
-      <c r="A842" s="2" t="s">
-        <v>216</v>
+      <c r="A842" s="2">
+        <v>13704995587</v>
       </c>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="2" t="s">
-        <v>217</v>
+      <c r="A843" s="2">
+        <v>13787260609</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="2">
-        <v>13017349892</v>
+        <v>13861477220</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="2">
-        <v>13645170996</v>
+        <v>13303412278</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="2">
-        <v>13669286913</v>
+        <v>13813996808</v>
       </c>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="2" t="s">
-        <v>218</v>
+      <c r="A847" s="2">
+        <v>13007422778</v>
       </c>
     </row>
     <row r="848" spans="1:1">
-      <c r="A848" s="2" t="s">
-        <v>219</v>
+      <c r="A848" s="2">
+        <v>13679448109</v>
       </c>
     </row>
     <row r="849" spans="1:1">
-      <c r="A849" s="2" t="s">
-        <v>220</v>
+      <c r="A849" s="2">
+        <v>13845618560</v>
       </c>
     </row>
     <row r="850" spans="1:1">
-      <c r="A850" s="2" t="s">
-        <v>221</v>
+      <c r="A850" s="2">
+        <v>13671813120</v>
       </c>
     </row>
     <row r="851" spans="1:1">
-      <c r="A851" s="2" t="s">
-        <v>222</v>
+      <c r="A851" s="2">
+        <v>13953535173</v>
       </c>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="2" t="s">
-        <v>223</v>
+      <c r="A852" s="2">
+        <v>13009888730</v>
       </c>
     </row>
     <row r="853" spans="1:1">
-      <c r="A853" s="2" t="s">
-        <v>224</v>
+      <c r="A853" s="2">
+        <v>13503951657</v>
       </c>
     </row>
     <row r="854" spans="1:1">
-      <c r="A854" s="2" t="s">
-        <v>225</v>
+      <c r="A854" s="2">
+        <v>13535611189</v>
       </c>
     </row>
     <row r="855" spans="1:1">
-      <c r="A855" s="2" t="s">
-        <v>226</v>
+      <c r="A855" s="2">
+        <v>13589891528</v>
       </c>
     </row>
     <row r="856" spans="1:1">
-      <c r="A856" s="2" t="s">
-        <v>227</v>
+      <c r="A856" s="2">
+        <v>13894429170</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="2">
-        <v>13089424822</v>
+        <v>13944608126</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="2">
-        <v>13578061986</v>
+        <v>13081902866</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="2">
-        <v>13886366198</v>
+        <v>13966908445</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="2">
-        <v>13788579808</v>
+        <v>13311375025</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" s="2">
-        <v>13873331681</v>
+        <v>13706323437</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="2">
-        <v>13014394221</v>
+        <v>13708489936</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" s="2">
-        <v>13991802235</v>
+        <v>13777360583</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="2">
-        <v>13681301519</v>
+        <v>13328000217</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="2">
-        <v>13778251306</v>
+        <v>13963791793</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="2">
-        <v>13511274800</v>
+        <v>13957012654</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="2">
-        <v>13308229661</v>
+        <v>13396349299</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="2">
-        <v>13875567691</v>
+        <v>13603140009</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" s="2">
-        <v>13938637483</v>
+        <v>13953809222</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="2">
-        <v>13661130057</v>
+        <v>13515731966</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="2">
-        <v>13969155228</v>
+        <v>13163666385</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="2">
-        <v>13704995587</v>
+        <v>13933046101</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="2">
-        <v>13787260609</v>
+        <v>13978453953</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="2">
-        <v>13861477220</v>
+        <v>13804717441</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="2">
-        <v>13303412278</v>
+        <v>13613664329</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="2">
-        <v>13813996808</v>
+        <v>13032122791</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="2">
-        <v>13007422778</v>
+        <v>13034612430</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="2">
-        <v>13679448109</v>
+        <v>13087239008</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="2">
-        <v>13845618560</v>
+        <v>13916112282</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="2">
-        <v>13671813120</v>
+        <v>13387149981</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="2">
-        <v>13953535173</v>
+        <v>13131520021</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="2">
-        <v>13009888730</v>
+        <v>13651990394</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="2">
-        <v>13503951657</v>
+        <v>13029862130</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="2">
-        <v>13535611189</v>
+        <v>13100313470</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885" s="2">
-        <v>13589891528</v>
+        <v>13181925582</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="2">
-        <v>13894429170</v>
+        <v>13931465704</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" s="2">
-        <v>13944608126</v>
+        <v>13307118180</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="2">
-        <v>13081902866</v>
+        <v>13964360748</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" s="2">
-        <v>13966908445</v>
+        <v>13017079973</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="2">
-        <v>13311375025</v>
+        <v>13941047099</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" s="2">
-        <v>13706323437</v>
+        <v>13084811310</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="2">
-        <v>13708489936</v>
+        <v>13643877062</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" s="2">
-        <v>13777360583</v>
+        <v>13525637580</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="2">
-        <v>13328000217</v>
+        <v>13986119661</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" s="2">
-        <v>13963791793</v>
+        <v>13951226978</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="2">
-        <v>13957012654</v>
+        <v>13545239018</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" s="2">
-        <v>13396349299</v>
+        <v>13605712664</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="2">
-        <v>13603140009</v>
+        <v>13890201636</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" s="2">
-        <v>13953809222</v>
+        <v>13857076126</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="2">
-        <v>13515731966</v>
+        <v>13964275801</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" s="2">
-        <v>13163666385</v>
+        <v>13857190897</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="2">
-        <v>13933046101</v>
+        <v>13853780470</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" s="2">
-        <v>13978453953</v>
+        <v>13156153569</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="2">
-        <v>13804717441</v>
+        <v>13708303078</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" s="2">
-        <v>13613664329</v>
+        <v>13070505791</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="2">
-        <v>13032122791</v>
+        <v>13155498038</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" s="2">
-        <v>13034612430</v>
+        <v>13864713962</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="2">
-        <v>13087239008</v>
+        <v>13019350258</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" s="2">
-        <v>13916112282</v>
+        <v>13995878685</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="2">
-        <v>13387149981</v>
+        <v>13945296296</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" s="2">
-        <v>13131520021</v>
+        <v>13328925030</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="2">
-        <v>13651990394</v>
+        <v>13003707779</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" s="2">
-        <v>13029862130</v>
+        <v>13516353305</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="2">
-        <v>13100313470</v>
+        <v>13505423489</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" s="2">
-        <v>13181925582</v>
+        <v>13197022358</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="2">
-        <v>13931465704</v>
+        <v>13807381871</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917" s="2">
-        <v>13307118180</v>
+        <v>13507596179</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="2">
-        <v>13964360748</v>
+        <v>13809404879</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" s="2">
-        <v>13017079973</v>
+        <v>13871824449</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="2">
-        <v>13941047099</v>
+        <v>13032510057</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" s="2">
-        <v>13084811310</v>
+        <v>1380700263</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="2">
-        <v>13643877062</v>
+        <v>13969933599</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" s="2">
-        <v>13525637580</v>
+        <v>13864101863</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="2">
-        <v>13986119661</v>
+        <v>13845953063</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" s="2">
-        <v>13951226978</v>
+        <v>13985076565</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="2">
-        <v>13545239018</v>
+        <v>13061615860</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" s="2">
-        <v>13605712664</v>
+        <v>13218383062</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="2">
-        <v>13890201636</v>
+        <v>1387495839</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" s="2">
-        <v>13857076126</v>
+        <v>13336139078</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="2">
-        <v>13964275801</v>
+        <v>13778997758</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" s="2">
-        <v>13857190897</v>
+        <v>13920955985</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="2">
-        <v>13853780470</v>
+        <v>13013625165</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" s="2">
-        <v>13156153569</v>
+        <v>13967260098</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="2">
-        <v>13708303078</v>
+        <v>13707342065</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" s="2">
-        <v>13070505791</v>
+        <v>13981317358</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="2">
-        <v>13155498038</v>
+        <v>13987140719</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" s="2">
-        <v>13864713962</v>
+        <v>13605945539</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="2">
-        <v>13019350258</v>
+        <v>13905848361</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" s="2">
-        <v>13995878685</v>
+        <v>13077787299</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="2">
-        <v>13945296296</v>
+        <v>13757901388</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" s="2">
-        <v>13328925030</v>
+        <v>13085026547</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="2">
-        <v>13003707779</v>
+        <v>13836033168</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943" s="2">
-        <v>13516353305</v>
+        <v>13937381328</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="2">
-        <v>13505423489</v>
+        <v>13117570388</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" s="2">
-        <v>13197022358</v>
+        <v>13719326577</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="2">
-        <v>13807381871</v>
+        <v>13705016579</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" s="2">
-        <v>13507596179</v>
+        <v>13019016245</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="2">
-        <v>13809404879</v>
+        <v>13807322708</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949" s="2">
-        <v>13871824449</v>
+        <v>13515559872</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="2">
-        <v>13032510057</v>
+        <v>13839058663</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" s="2">
-        <v>1380700263</v>
+        <v>13355806111</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="2">
-        <v>13969933599</v>
+        <v>13898127574</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953" s="2">
-        <v>13864101863</v>
+        <v>13061300057</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="2">
-        <v>13845953063</v>
+        <v>13035699376</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955" s="2">
-        <v>13985076565</v>
+        <v>13603762732</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="2">
-        <v>13061615860</v>
+        <v>13963857868</v>
       </c>
     </row>
     <row r="957" spans="1:1">
-      <c r="A957" s="2">
-        <v>13218383062</v>
+      <c r="A957" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="958" spans="1:1">
-      <c r="A958" s="2">
-        <v>1387495839</v>
+      <c r="A958" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="959" spans="1:1">
-      <c r="A959" s="2">
-        <v>13336139078</v>
+      <c r="A959" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="960" spans="1:1">
-      <c r="A960" s="2">
-        <v>13778997758</v>
+      <c r="A960" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="961" spans="1:1">
-      <c r="A961" s="2">
-        <v>13920955985</v>
+      <c r="A961" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="962" spans="1:1">
-      <c r="A962" s="2">
-        <v>13013625165</v>
+      <c r="A962" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="963" spans="1:1">
-      <c r="A963" s="2">
-        <v>13967260098</v>
+      <c r="A963" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="964" spans="1:1">
-      <c r="A964" s="2">
-        <v>13707342065</v>
+      <c r="A964" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="965" spans="1:1">
-      <c r="A965" s="2">
-        <v>13981317358</v>
+      <c r="A965" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="966" spans="1:1">
-      <c r="A966" s="2">
-        <v>13987140719</v>
+      <c r="A966" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="967" spans="1:1">
-      <c r="A967" s="2">
-        <v>13605945539</v>
+      <c r="A967" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="968" spans="1:1">
-      <c r="A968" s="2">
-        <v>13905848361</v>
+      <c r="A968" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="969" spans="1:1">
-      <c r="A969" s="2">
-        <v>13077787299</v>
+      <c r="A969" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="970" spans="1:1">
-      <c r="A970" s="2">
-        <v>13757901388</v>
+      <c r="A970" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="971" spans="1:1">
-      <c r="A971" s="2">
-        <v>13085026547</v>
+      <c r="A971" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="972" spans="1:1">
-      <c r="A972" s="2">
-        <v>13836033168</v>
+      <c r="A972" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="973" spans="1:1">
-      <c r="A973" s="2">
-        <v>13937381328</v>
+      <c r="A973" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="974" spans="1:1">
-      <c r="A974" s="2">
-        <v>13117570388</v>
+      <c r="A974" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="975" spans="1:1">
-      <c r="A975" s="2">
-        <v>13719326577</v>
+      <c r="A975" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="976" spans="1:1">
-      <c r="A976" s="2">
-        <v>13705016579</v>
+      <c r="A976" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="977" spans="1:1">
-      <c r="A977" s="2">
-        <v>13019016245</v>
+      <c r="A977" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="978" spans="1:1">
-      <c r="A978" s="2">
-        <v>13807322708</v>
+      <c r="A978" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="979" spans="1:1">
-      <c r="A979" s="2">
-        <v>13515559872</v>
+      <c r="A979" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="980" spans="1:1">
-      <c r="A980" s="2">
-        <v>13839058663</v>
+      <c r="A980" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="981" spans="1:1">
-      <c r="A981" s="2">
-        <v>13355806111</v>
+      <c r="A981" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="982" spans="1:1">
-      <c r="A982" s="2">
-        <v>13898127574</v>
+      <c r="A982" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="983" spans="1:1">
-      <c r="A983" s="2">
-        <v>13061300057</v>
+      <c r="A983" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="984" spans="1:1">
-      <c r="A984" s="2">
-        <v>13035699376</v>
+      <c r="A984" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="2">
-        <v>13603762732</v>
+      <c r="A985" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="986" spans="1:1">
-      <c r="A986" s="2">
-        <v>13963857868</v>
+      <c r="A986" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="2" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" s="2" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="2" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" s="2" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" s="2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993" s="2" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" s="2" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" s="2" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" s="2" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000" s="2" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001" s="2" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" s="2" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" s="2" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004" s="2" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005" s="2" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006" s="2" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007" s="2" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" s="2" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" s="2" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011" s="2" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012" s="2" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013" s="2" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014" s="2" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015" s="2" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016" s="2" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018" s="2" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019" s="2" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" s="2" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022" s="2" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023" s="2" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024" s="2" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025" s="2" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026" s="2" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027" s="2" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028" s="2" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029" s="2" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030" s="2" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031" s="2" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032" s="2" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" s="2" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034" s="2" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035" s="2" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036" s="2" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037" s="2" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039" s="2" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040" s="2" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" s="2" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042" s="2" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043" s="2" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044" s="2" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045" s="2" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046" s="2" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048" s="2" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" s="2" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050" s="2" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051" s="2" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053" s="2" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" s="2" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" s="2" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" s="2" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" s="2" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" s="2" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" s="2" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065" s="2" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" s="2" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" s="2" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" s="2" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" s="2" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" s="2" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" s="2" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" s="2" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073" s="2" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074" s="2" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075" s="2" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077" s="2" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078" s="2" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" s="2" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081" s="2" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082" s="2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083" s="2" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084" s="2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086" s="2" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087" s="2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088" s="2" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090" s="2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092" s="2" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093" s="2" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094" s="2" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095" s="2" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096" s="2" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097" s="2" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099" s="2" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100" s="2" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101" s="2" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102" s="2" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103" s="2" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105" s="2" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106" s="2" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107" s="2" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
-      <c r="A1108" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1">
-      <c r="A1109" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1">
-      <c r="A1110" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1">
-      <c r="A1111" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1">
-      <c r="A1112" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1">
-      <c r="A1113" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1">
-      <c r="A1114" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1">
-      <c r="A1115" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1">
-      <c r="A1116" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1">
-      <c r="A1117" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1">
-      <c r="A1118" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1">
-      <c r="A1119" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1">
-      <c r="A1120" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1">
-      <c r="A1121" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1">
-      <c r="A1122" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1">
-      <c r="A1123" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1">
-      <c r="A1124" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1">
-      <c r="A1125" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1">
-      <c r="A1126" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1">
-      <c r="A1127" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1">
-      <c r="A1128" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1">
-      <c r="A1129" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1">
-      <c r="A1130" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1">
-      <c r="A1131" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1">
-      <c r="A1132" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1">
-      <c r="A1133" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1">
-      <c r="A1134" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1">
-      <c r="A1135" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1">
-      <c r="A1136" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1">
-      <c r="A1137" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1">
-      <c r="A1138" s="2">
+      <c r="A1108" s="2">
         <v>13585389283</v>
       </c>
     </row>
